--- a/biology/Zoologie/Tetraponera_oligocenica/Tetraponera_oligocenica.xlsx
+++ b/biology/Zoologie/Tetraponera_oligocenica/Tetraponera_oligocenica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sima oligocenica
 Tetraponera oligocenica est une espèce fossile de guêpes appartenant à la famille des Formicidae, dans la super-famille des Vespoidea et la sous-famille des Pseudomyrmecinae, dans le genre Tetraponera.
@@ -512,15 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Tetraponera oligocenica est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le nom de Sima oligocenica, dans la sous-famille des Myrmicinae[1],[2].
-Fossiles
-L'holotype C99 vient des terrains sannoisiens de la formation de Célas dans le Gard, et des collections du Muséum d'histoire naturelle de Marseille[1],[2].
-Étymologie
-L'épithète spécifique oligocenica rappelle l'origine du fossile l'Oligocène.
-Sous-famille
-L'espèce initialement décrite dans la sous-famille des Myrmicinae est en 2023 et selon Paleobiology Database, classée dans la sous-famille des Pseudomyrmecinae, depuis 2012 par le myrmécologue américain Barry Bolton[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Tetraponera oligocenica est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le nom de Sima oligocenica, dans la sous-famille des Myrmicinae,.
 </t>
         </is>
       </c>
@@ -546,18 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[note 1] : 
-« Insecte incomplet, dont la tête, le thorax et les ailes sont conservés. Ailes noirâtres. Tête et thorax pâles. Tête subquadrangulaire avec yeux de petite taille placés latéralement; ocelles non visibles; angles postérieurs arrondis. Cou net. Thorax allongé, rétréci au milieu, la partie postérieure manque. Ailes antérieures bien conservées; stigma net, allongé, étroit; une cellule discoïdale allongée, une cellule radiale, fermée, allongée; deux cellules cubitales fermées; la nervure récurrente limitant la 2° c. cubitale est effacée, mais le rebroussement de la nerveuse cubitale montre nettement qu'il doit exister une 2° c. cubitale fermée[1]. »
-Dimensions
-La longueur des ailes est de 9,5 mm, la largeur de l'aile est de 3,5 mm[1].
-Affinités
-« La nervation des ailes caractérise la tribu des Pseudomyrmicini; dans celle-ci le g. Sima, qui vit dans les régions tropicales de l'ancien monde, a des yeux de petite taille. Sima rufonigra ♀ Jerdon atteint une longueur de 13-14 mm.[1]. »
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype C99 vient des terrains sannoisiens de la formation de Célas dans le Gard, et des collections du Muséum d'histoire naturelle de Marseille,.
 </t>
         </is>
       </c>
@@ -583,13 +591,203 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique oligocenica rappelle l'origine du fossile l'Oligocène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tetraponera_oligocenica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetraponera_oligocenica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce initialement décrite dans la sous-famille des Myrmicinae est en 2023 et selon Paleobiology Database, classée dans la sous-famille des Pseudomyrmecinae, depuis 2012 par le myrmécologue américain Barry Bolton,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tetraponera_oligocenica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetraponera_oligocenica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937[note 1] : 
+« Insecte incomplet, dont la tête, le thorax et les ailes sont conservés. Ailes noirâtres. Tête et thorax pâles. Tête subquadrangulaire avec yeux de petite taille placés latéralement; ocelles non visibles; angles postérieurs arrondis. Cou net. Thorax allongé, rétréci au milieu, la partie postérieure manque. Ailes antérieures bien conservées; stigma net, allongé, étroit; une cellule discoïdale allongée, une cellule radiale, fermée, allongée; deux cellules cubitales fermées; la nervure récurrente limitant la 2° c. cubitale est effacée, mais le rebroussement de la nerveuse cubitale montre nettement qu'il doit exister une 2° c. cubitale fermée. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tetraponera_oligocenica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetraponera_oligocenica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur des ailes est de 9,5 mm, la largeur de l'aile est de 3,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tetraponera_oligocenica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetraponera_oligocenica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« La nervation des ailes caractérise la tribu des Pseudomyrmicini; dans celle-ci le g. Sima, qui vit dans les régions tropicales de l'ancien monde, a des yeux de petite taille. Sima rufonigra ♀ Jerdon atteint une longueur de 13-14 mm.. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tetraponera_oligocenica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetraponera_oligocenica</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Sima rufonigra construit son nid dans le creux des arbres (Xylia dolabriformis). Ses morsures sont très douloureuses. Mœurs carnassières. Rothney a décrit des luttes entre Oecophylla smaragdina Fabr. et Sima rufonigra Jerdon[1]. »
+« Sima rufonigra construit son nid dans le creux des arbres (Xylia dolabriformis). Ses morsures sont très douloureuses. Mœurs carnassières. Rothney a décrit des luttes entre Oecophylla smaragdina Fabr. et Sima rufonigra Jerdon. »
 </t>
         </is>
       </c>
